--- a/biology/Zoologie/Cestum_veneris/Cestum_veneris.xlsx
+++ b/biology/Zoologie/Cestum_veneris/Cestum_veneris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cestum veneris, la Ceinture de Vénus, est une espèce d'animaux marins appartenant à l'embranchement des cténophores ou « cténaires ».
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle doit cette appellation poétique à sa forme de ruban aplati et transparent, qui mesure parfois plus d'un mètre de longueur (au moins jusqu'à 1,50 m)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle doit cette appellation poétique à sa forme de ruban aplati et transparent, qui mesure parfois plus d'un mètre de longueur (au moins jusqu'à 1,50 m).
 Cestum veneris est la seule espèce du genre Cestum.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce cosmopolite, qui se rencontre dans tous les océans du globe, plutôt au large mais parfois près des côtes, et à toutes les gammes de profondeur[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce cosmopolite, qui se rencontre dans tous les océans du globe, plutôt au large mais parfois près des côtes, et à toutes les gammes de profondeur. 
 </t>
         </is>
       </c>
